--- a/biology/Zoologie/Hypoleria_lavinia/Hypoleria_lavinia.xlsx
+++ b/biology/Zoologie/Hypoleria_lavinia/Hypoleria_lavinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoleria lavinia est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Hypoleria.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypoleria lavinia a été décrit par William Chapman Hewitson en 1855 sous le nom initial de' Ithonia lavinia[1].
-Sous-espèces
-Hypoleria lavinia lavinia; présent en Équateur
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypoleria lavinia a été décrit par William Chapman Hewitson en 1855 sous le nom initial de' Ithonia lavinia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hypoleria lavinia lavinia; présent en Équateur
 Hypoleria lavinia asellia (Hopffer, 1874); présent au Pérou.
 Hypoleria lavinia cajona Haensch, 1905; présent au Brésil et  au Pérou.
 Hypoleria lavinia cassotis (Bates, 1864); présent au Mexique, au Guatemala, à Panama
@@ -524,7 +573,7 @@
 Hypoleria lavinia garleppi Haensch, 1905; présent au Pérou.
 Hypoleria lavinia indecora Haensch, 1905; présent au Brésil, au Surinam, en Guyana et en Guyane.
 Hypoleria lavinia karschi Haensch, 1903; présent en Équateur
-Hypoleria lavinia libera Godman &amp; Salvin, [1879]; présent à Panama
+Hypoleria lavinia libera Godman &amp; Salvin, ; présent à Panama
 Hypoleria lavinia meridana Fox, 1948; présent au Venezuela
 Hypoleria lavinia mulviana d'Almeida, 1958; présent au Brésil
 Hypoleria lavinia oreas Weymer, 1899; présent au Brésil
@@ -532,45 +581,11 @@
 Hypoleria lavinia rhene (Godman &amp; Salvin, 1878); présent à Panama
 Hypoleria lavinia riffarthi Haensch, 1905; présent en Équateur
 Hypoleria lavinia vanilia (Herrich-Schäffer, 1865); présent en Colombie
-Hypoleria lavinia vaniliana Kaye, 1919; présent en Colombie[1].
+Hypoleria lavinia vaniliana Kaye, 1919; présent en Colombie.
 Hypoleria lavinia ssp; présent en Colombie
 Hypoleria lavinia ssp; présent au Brésil
 Hypoleria lavinia ssp; présent au Brésil
-Hypoleria lavinia ssp; présent en Guyane.
-Nom vernaculaire
-Hypoleria lavinia se nomme  Lavinia Glasswing en anglais et Hypoleria lavinia cassotis Cassotis Clearwing[2],[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hypoleria_lavinia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypoleria_lavinia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypoleria lavinia est un papillon aux ailes à apex arrondi,  et bord interne concave. Les ailes sont transparentes irisées à veines marron et bordure marron nacrée sur le dessus, orange sur le revers.
-</t>
+Hypoleria lavinia ssp; présent en Guyane.</t>
         </is>
       </c>
     </row>
@@ -595,13 +610,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Solanum[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypoleria lavinia se nomme  Lavinia Glasswing en anglais et Hypoleria lavinia cassotis Cassotis Clearwing,.
 </t>
         </is>
       </c>
@@ -627,16 +647,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypoleria lavinia est un papillon aux ailes à apex arrondi,  et bord interne concave. Les ailes sont transparentes irisées à veines marron et bordure marron nacrée sur le dessus, orange sur le revers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Solanum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypoleria lavinia est présent au Mexique, au Guatemala, à Panama, au Venezuela, en Colombie, en Équateur, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane[1].
-Biotope
-Hypoleria lavinia réside dans la forêt primaire[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypoleria lavinia est présent au Mexique, au Guatemala, à Panama, au Venezuela, en Colombie, en Équateur, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypoleria lavinia réside dans la forêt primaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypoleria_lavinia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Hypoleria lavinia, sur Wikimedia CommonsHypoleria lavinia, sur Wikispecies
 </t>
